--- a/public/StructureDefinition-MyBodyStructure.xlsx
+++ b/public/StructureDefinition-MyBodyStructure.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-17T13:06:47-06:00</t>
+    <t>2022-01-17T13:47:18-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/public/StructureDefinition-MyBodyStructure.xlsx
+++ b/public/StructureDefinition-MyBodyStructure.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-17T13:47:18-06:00</t>
+    <t>2022-01-17T14:13:39-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/public/StructureDefinition-MyBodyStructure.xlsx
+++ b/public/StructureDefinition-MyBodyStructure.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-17T14:13:39-06:00</t>
+    <t>2022-01-17T15:55:59-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/public/StructureDefinition-MyBodyStructure.xlsx
+++ b/public/StructureDefinition-MyBodyStructure.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-17T15:55:59-06:00</t>
+    <t>2022-01-17T19:18:25-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/public/StructureDefinition-MyBodyStructure.xlsx
+++ b/public/StructureDefinition-MyBodyStructure.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-17T19:18:25-06:00</t>
+    <t>2022-03-07T02:13:14-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/public/StructureDefinition-MyBodyStructure.xlsx
+++ b/public/StructureDefinition-MyBodyStructure.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-07T02:13:14-06:00</t>
+    <t>2022-03-07T17:38:24-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/public/StructureDefinition-MyBodyStructure.xlsx
+++ b/public/StructureDefinition-MyBodyStructure.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-07T17:38:24-06:00</t>
+    <t>2022-03-07T17:57:52-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/public/StructureDefinition-MyBodyStructure.xlsx
+++ b/public/StructureDefinition-MyBodyStructure.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="202">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://gitlab.mitre.org/awatson/hello-implementation-guide/StructureDefinition/MyBodyStructure</t>
+    <t>https://gitlab.mitre.org/awatson/sphr/StructureDefinition/MyBodyStructure</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-07T17:57:52-06:00</t>
+    <t>2022-03-07T22:25:08-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -96,13 +96,13 @@
     <t>Type</t>
   </si>
   <si>
-    <t>DomainResource</t>
+    <t>BodyStructure</t>
   </si>
   <si>
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/DomainResource</t>
+    <t>http://hl7.org/fhir/StructureDefinition/BodyStructure</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -225,29 +225,45 @@
     <t>Mapping: RIM Mapping</t>
   </si>
   <si>
+    <t>Mapping: Open EHR Archetype Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: FiveWs Pattern Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: HL7 v2 Mapping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anatomical location
+</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>A resource with narrative, extensions, and contained resources</t>
-  </si>
-  <si>
-    <t>A resource that includes narrative, extensions, and contained resources.</t>
+    <t>Specific and identified anatomical structure</t>
+  </si>
+  <si>
+    <t>Record details about an anatomical structure.  This resource may be used when a coded concept does not provide the necessary detail needed for the use case.</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
 dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
-    <t>Entity. Role, or Act</t>
-  </si>
-  <si>
-    <t>DomainResource.id</t>
+    <t>ActSIte</t>
+  </si>
+  <si>
+    <t>Archetype ID   openEHR-EHR-CLUSTER.anatomical_location.v1      Concept name   Anatomical Location      Concept description   Record details about an anatomical location.      Keywords   location, site, anatomical      Copyright   © openEHR Foundation      Purpose   To record details about anatomical location.      Misuse   Not for specifiying unilateral/bilateral occurrence - this is related to an evaluation which perhaps includes multiple locations.      Author   Author name: Heather Leslie Organization: Ocean Informatics Email: heather.leslie@oceaninformatics.com Date of Origination: 2008-11-10       Translator   Norwegian Bokmål: Lars Bitsch-Larsen, Haukeland University Hospital of Bergen, Norway, MD, DEAA, MBA, spec in anesthesia, spec in tropical medicine. Arabic (Syria): Mona Saleh       Other contributors   Heather Leslie, Ocean Informatics, Australia (Editor) Ian McNicoll, freshEHR Clinical Informatics, United Kingdom (Editor) Dunmail Hodkinson, Black Pear Software Ltd, UK      References   Use cases: - 5LICS, midclavicular line - L forearm, 2cm anterior to the cubital fossa - Right iliac fossa - 5 cm below L tibial tuberosity - 2 cm medial to R nipple - 4 cm below R costal margin in midclavicular line - R femur - midline nose - medial aspect of R great toe nail.</t>
+  </si>
+  <si>
+    <t>BodyStructure.id</t>
   </si>
   <si>
     <t>1</t>
@@ -272,7 +288,7 @@
     <t>Resource.id</t>
   </si>
   <si>
-    <t>DomainResource.meta</t>
+    <t>BodyStructure.meta</t>
   </si>
   <si>
     <t xml:space="preserve">Meta
@@ -292,7 +308,7 @@
 </t>
   </si>
   <si>
-    <t>DomainResource.implicitRules</t>
+    <t>BodyStructure.implicitRules</t>
   </si>
   <si>
     <t xml:space="preserve">uri
@@ -311,7 +327,7 @@
     <t>Resource.implicitRules</t>
   </si>
   <si>
-    <t>DomainResource.language</t>
+    <t>BodyStructure.language</t>
   </si>
   <si>
     <t xml:space="preserve">code
@@ -339,7 +355,7 @@
     <t>Resource.language</t>
   </si>
   <si>
-    <t>DomainResource.text</t>
+    <t>BodyStructure.text</t>
   </si>
   <si>
     <t>narrative
@@ -359,10 +375,13 @@
     <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
     <t>Act.text?</t>
   </si>
   <si>
-    <t>DomainResource.contained</t>
+    <t>BodyStructure.contained</t>
   </si>
   <si>
     <t>inline resources
@@ -382,10 +401,13 @@
     <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>DomainResource.extension</t>
+    <t>BodyStructure.extension</t>
   </si>
   <si>
     <t>extensions
@@ -405,21 +427,14 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
+    <t>DomainResource.extension</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>DomainResource.modifierExtension</t>
+    <t>BodyStructure.modifierExtension</t>
   </si>
   <si>
     <t>Extensions that cannot be ignored</t>
@@ -430,6 +445,200 @@
   </si>
   <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>BodyStructure.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Bodystructure identifier</t>
+  </si>
+  <si>
+    <t>Identifier for this instance of the anatomical structure.</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>Specific location  Cluster Optional (0..1) Cardinality: Mandatory, repeating, unordered (1..*)</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>BodyStructure.active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>Whether this record is in active use</t>
+  </si>
+  <si>
+    <t>Whether this body site is in active use.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because it may be used to mark that the resource was created in error.</t>
+  </si>
+  <si>
+    <t>Need to be able to mark a body site entry as not to be used because it was created in error.</t>
+  </si>
+  <si>
+    <t>This resource is generally assumed to be active if no value is provided for the active element</t>
+  </si>
+  <si>
+    <t>statusCode</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>BodyStructure.morphology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Kind of Structure</t>
+  </si>
+  <si>
+    <t>The kind of structure being represented by the body structure at `BodyStructure.location`.  This can define both normal and abnormal morphologies.</t>
+  </si>
+  <si>
+    <t>The minimum cardinality of 0 supports the use case of specifying a location without defining a morphology.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes describing anatomic morphology.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/bodystructure-code</t>
+  </si>
+  <si>
+    <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>SPM-4/SPM-5</t>
+  </si>
+  <si>
+    <t>BodyStructure.location</t>
+  </si>
+  <si>
+    <t>Body site</t>
+  </si>
+  <si>
+    <t>The anatomical location or region of the specimen, lesion, or body structure.</t>
+  </si>
+  <si>
+    <t>Codes describing anatomical locations. May include laterality.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+  </si>
+  <si>
+    <t>.targetSiteCode</t>
+  </si>
+  <si>
+    <t>Name of location</t>
+  </si>
+  <si>
+    <t>OBX-20/SPM-8/SPM-10</t>
+  </si>
+  <si>
+    <t>BodyStructure.locationQualifier</t>
+  </si>
+  <si>
+    <t>Body site modifier</t>
+  </si>
+  <si>
+    <t>Qualifier to refine the anatomical location.  These include qualifiers for laterality, relative location, directionality, number, and plane.</t>
+  </si>
+  <si>
+    <t>Concepts modifying the anatomic location.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/bodystructure-relative-location</t>
+  </si>
+  <si>
+    <t>Combines Side, Numerical identifier, Anatomical plane,and Aspect</t>
+  </si>
+  <si>
+    <t>No distinct element defined in V2.x. The IHE Radiology Technical Framework directs the use of OBR-15-specimen source to contain laterality for imaging studies./SPM-9</t>
+  </si>
+  <si>
+    <t>BodyStructure.description</t>
+  </si>
+  <si>
+    <t>Text description</t>
+  </si>
+  <si>
+    <t>A summary, characterization or explanation of the body structure.</t>
+  </si>
+  <si>
+    <t>This description could include any visual markings used to orientate the viewer e.g. external reference points, special sutures, ink markings.</t>
+  </si>
+  <si>
+    <t>.text</t>
+  </si>
+  <si>
+    <t>Description of anatomical location/Visual markings/orientation</t>
+  </si>
+  <si>
+    <t>NTE</t>
+  </si>
+  <si>
+    <t>BodyStructure.image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attachment
+</t>
+  </si>
+  <si>
+    <t>Attached images</t>
+  </si>
+  <si>
+    <t>Image or images used to identify a location.</t>
+  </si>
+  <si>
+    <t>outboundRelationship[typeCode=COMP].target</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>OBX</t>
+  </si>
+  <si>
+    <t>BodyStructure.patient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Patient)
+</t>
+  </si>
+  <si>
+    <t>Who this is about</t>
+  </si>
+  <si>
+    <t>The person to which the body site belongs.</t>
+  </si>
+  <si>
+    <t>.scoper or .scoper.playsRole</t>
+  </si>
+  <si>
+    <t>FiveWs.subject</t>
+  </si>
+  <si>
+    <t>PID-3</t>
   </si>
 </sst>
 </file>
@@ -724,7 +933,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ10"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -733,7 +942,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="32.79296875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="30.19921875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
@@ -743,7 +952,7 @@
     <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="57.140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="51.1328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -756,11 +965,11 @@
     <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="19.796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="36.27734375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="55.9140625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="55.34765625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="32.79296875" customWidth="true" bestFit="true" hidden="true"/>
@@ -768,7 +977,10 @@
     <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="22.67578125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="42.86328125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="151.96875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -880,6 +1092,15 @@
       <c r="AJ1" t="s" s="1">
         <v>69</v>
       </c>
+      <c r="AK1" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="AL1" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="AM1" t="s" s="1">
+        <v>72</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
@@ -887,914 +1108,1877 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="AE2" t="s" s="2">
         <v>27</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK2" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM2" t="s" s="2">
         <v>76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="AK3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM3" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="AK4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM4" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="AK5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM5" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="AK6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM6" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>112</v>
+        <v>118</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM7" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>119</v>
+        <v>126</v>
+      </c>
+      <c r="AK8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM8" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="AA9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AF9" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="AB9" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AG9" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>119</v>
+      <c r="AK9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM9" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="M10" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="N10" t="s" s="2">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="AA10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE10" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AF10" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI10" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="AB10" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AC10" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AD10" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AE10" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AF10" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AG10" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AH10" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AI10" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AJ10" t="s" s="2">
-        <v>119</v>
+      <c r="AK10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM10" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J11" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P11" s="2"/>
+      <c r="Q11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AM11" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J12" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="O12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P12" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="Q12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AM12" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F13" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J13" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P13" s="2"/>
+      <c r="Q13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AM13" t="s" s="2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J14" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P14" s="2"/>
+      <c r="Q14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AL14" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AM14" t="s" s="2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J15" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P15" s="2"/>
+      <c r="Q15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W15" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AM15" t="s" s="2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J16" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P16" s="2"/>
+      <c r="Q16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AM16" t="s" s="2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J17" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P17" s="2"/>
+      <c r="Q17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AM17" t="s" s="2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J18" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P18" s="2"/>
+      <c r="Q18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AM18" t="s" s="2">
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/public/StructureDefinition-MyBodyStructure.xlsx
+++ b/public/StructureDefinition-MyBodyStructure.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-07T22:25:08-06:00</t>
+    <t>2022-03-08T03:29:37-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/public/StructureDefinition-MyBodyStructure.xlsx
+++ b/public/StructureDefinition-MyBodyStructure.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-08T03:29:37-06:00</t>
+    <t>2022-03-09T08:58:18-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/public/StructureDefinition-MyBodyStructure.xlsx
+++ b/public/StructureDefinition-MyBodyStructure.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-09T08:58:18-06:00</t>
+    <t>2022-03-09T09:27:10-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
